--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8675406B-E91E-4FF1-BB73-969FE644DDAB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9495CC64-320E-495F-89BA-97E029EFB736}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9495CC64-320E-495F-89BA-97E029EFB736}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AC8B46-D85B-44AE-B8A3-99154E25BBE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -57,43 +57,98 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">asset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">account that is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>increasing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Open Sans"/>
       </rPr>
-      <t>Equipment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>Accounts Payable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Open Sans"/>
       </rPr>
-      <t xml:space="preserve"> is an </t>
+      <t xml:space="preserve"> is a </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
-      </rPr>
-      <t xml:space="preserve">asset </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Open Sans"/>
       </rPr>
+      <t xml:space="preserve">liability </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+      </rPr>
       <t xml:space="preserve">account that is </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
       </rPr>
       <t>increasing.</t>
     </r>
@@ -102,43 +157,53 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Accounts Payable</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> is a </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">liability </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">account that is </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>increasing.</t>
     </r>
@@ -151,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,29 +232,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Open sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Open sans"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Open sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -604,10 +679,10 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
@@ -617,7 +692,7 @@
     <col min="13" max="13" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43617</v>
       </c>
@@ -655,7 +730,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -668,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -677,7 +752,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G3:M3"/>
